--- a/Result/ROF_MPW.xlsx
+++ b/Result/ROF_MPW.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,226 @@
           <t>Август 1 половина.xlsx bigram keywords</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Август 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Август 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Апрель 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Апрель 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Апрель 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Апрель 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Декабрь 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Декабрь 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Декабрь 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Декабрь 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Июль 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Июль 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Июль 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Июль 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Июнь 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Июнь 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Июнь 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Июнь 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Май 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Май 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Май 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Май 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Март 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Март 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Март 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Март 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Ноябрь 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Ноябрь 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Ноябрь 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Ноябрь 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Октябрь 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Октябрь 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Октябрь 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Октябрь 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Сентябрь 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Сентябрь 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Сентябрь 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Сентябрь 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Февраль 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Февраль 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Январь 1 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Январь 1 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Январь 2 половина.xlsx unigram keywords</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Январь 2 половина.xlsx bigram keywords</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -459,6 +679,226 @@
           <t>(('bit', 'ly'), 175)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>('https', 1235)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 161)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>('https', 952)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(('апрель', 'в'), 141)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('https', 1026)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 210)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>('https', 906)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 129)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>('https', 1680)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 312)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>('https', 877)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 119)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>('https', 1036)</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 140)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>('https', 812)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 126)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>('https', 860)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 134)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>('https', 753)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 111)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>('https', 918)</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 114)</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>('https', 1209)</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 1025)</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>('https', 1493)</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 1204)</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>('https', 1243)</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 186)</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>('https', 1320)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 218)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>('https', 1360)</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 194)</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>('https', 1310)</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 179)</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>('https', 1488)</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 240)</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>('https', 1360)</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 194)</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>('https', 1375)</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 1181)</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>('https', 829)</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 125)</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>('https', 1681)</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 600)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,6 +914,226 @@
           <t>(('https', 'bit'), 170)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('компания', 744)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 158)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>('компания', 566)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 129)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>('ru', 519)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 117)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>('компания', 493)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 129)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>('ru', 945)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>(('новый', 'год'), 207)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>('ru', 511)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 112)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>('ru', 518)</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 133)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>('ru', 384)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 113)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>('ru', 464)</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 119)</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>('ru', 445)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 99)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>('ru', 512)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 112)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>('сайт', 1102)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 1025)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>('http', 1233)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 1204)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>('компания', 636)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 161)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>('компания', 771)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 217)</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>('ru', 783)</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 189)</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>('ru', 650)</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 152)</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>('ru', 792)</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 240)</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>('ru', 783)</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 189)</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>('http', 1230)</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 1181)</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>('ru', 406)</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 98)</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>('компания', 1000)</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 600)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -489,6 +1149,226 @@
           <t>(('один', 'из'), 123)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>('ru', 658)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 156)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>('ru', 498)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 117)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('компания', 465)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 108)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>('ru', 449)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 121)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>('компания', 864)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>(('2021', 'год'), 205)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>('компания', 414)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 112)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>('компания', 509)</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 130)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>('работа', 347)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 106)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>('компания', 423)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 119)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>('май', 337)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>(('vk', 'cc'), 95)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>('компания', 458)</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 106)</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>('http', 1055)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>(('shikari', 'do'), 658)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>('amp', 1205)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>(('shikari', 'do'), 608)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>('ru', 612)</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 147)</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>('ru', 692)</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 191)</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>('компания', 693)</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 179)</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>('компания', 630)</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 145)</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>('компания', 662)</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 192)</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>('компания', 693)</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 179)</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>('amp', 1183)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>(('рабочий', 'день'), 289)</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>('компания', 330)</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>(('2021', 'год'), 87)</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>('ru', 944)</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 250)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +1384,226 @@
           <t>(('а', 'также'), 116)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('новый', 532)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 155)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>('it', 424)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 116)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>('2021', 418)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 106)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>('декабрь', 360)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 111)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>('новый', 816)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 178)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>('работа', 373)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 112)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>('работа', 404)</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 128)</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>('компания', 345)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 94)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>('работа', 371)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 108)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>('компания', 335)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 92)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>('работа', 365)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>(('в', 'зал'), 105)</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>('amp', 1029)</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 408)</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>('gs', 1204)</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 418)</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>('ноябрь', 485)</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 142)</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>('новый', 528)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 183)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>('работа', 499)</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 176)</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>('работа', 484)</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 144)</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>('сентябрь', 547)</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 182)</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>('работа', 499)</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 176)</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>('gs', 1181)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>(('полный', 'рабочий'), 270)</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>('новый', 292)</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 85)</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>('http', 646)</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 226)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -519,6 +1619,226 @@
           <t>(('ссылка', 'https'), 112)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>('проект', 465)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 154)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('апрель', 415)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 113)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>('работа', 416)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 103)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>('новый', 330)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 103)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>('работа', 555)</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 168)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>('новый', 319)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 105)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>('новый', 399)</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 125)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>('июнь', 319)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 94)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>('новый', 327)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 105)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>('2021', 318)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 84)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>('проект', 336)</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 100)</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>('gs', 1025)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>(('на', 'сайт'), 403)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>('сайт', 1031)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>(('на', 'сайт'), 408)</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>('it', 449)</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 141)</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>('работа', 521)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 166)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>('новый', 471)</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 170)</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>('новый', 432)</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 136)</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>('новый', 535)</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 181)</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>('новый', 471)</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 170)</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>('компания', 1077)</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>(('000', 'http'), 246)</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>('python', 275)</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 84)</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>('amp', 600)</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 226)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -534,6 +1854,226 @@
           <t>(('clck', 'ru'), 112)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>('2021', 454)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 153)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>('проект', 380)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 109)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>('проект', 388)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 100)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>('работа', 279)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 103)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>('проект', 541)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 168)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>('проект', 298)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 104)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>('проект', 303)</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 121)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>('проект', 265)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>(('vk', 'cc'), 94)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>('проект', 307)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 91)</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>('проект', 318)</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>(('весна', '2021'), 83)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>('2021', 328)</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>(('работа', 'с'), 91)</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>('компания', 853)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>(('разместить', 'на'), 330)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>('компания', 897)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>(('разместить', 'на'), 308)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>('работа', 445)</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 141)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>('проект', 434)</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 163)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>('проект', 470)</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 166)</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>('проект', 429)</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 133)</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>('работа', 483)</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 180)</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>('проект', 470)</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 166)</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>('ru', 928)</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>(('можно', 'удалённый'), 237)</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>('pylounge', 264)</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 83)</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>('gs', 600)</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>(('рабочий', 'день'), 207)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -549,6 +2089,226 @@
           <t>(('по', 'ссылка'), 108)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>('работа', 432)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 139)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>('работа', 366)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 105)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>('it', 327)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 100)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>('проект', 258)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 97)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>('2021', 522)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 164)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>('июль', 246)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 94)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>('2021', 266)</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 117)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>('2021', 261)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 90)</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>('2021', 282)</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 89)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>('it', 281)</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>(('highload', 'весна'), 82)</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>('it', 308)</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 91)</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>('do', 663)</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>(('https', 'shikari'), 329)</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>('ru', 848)</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>(('https', 'shikari'), 304)</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>('новый', 431)</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 138)</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>('команда', 396)</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 154)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>('2021', 394)</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 164)</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>('it', 370)</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 133)</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>('проект', 475)</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 154)</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>('2021', 394)</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 164)</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>('курс', 566)</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 236)</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>('работа', 259)</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 83)</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>('работа', 531)</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>(('полный', 'рабочий'), 192)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -564,6 +2324,226 @@
           <t>(('https', 'clck'), 108)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>('команда', 356)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 139)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>('2021', 326)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(('vk', 'cc'), 105)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>('новый', 313)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>(('апрель', 'в'), 93)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>('00', 257)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 96)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>('it', 439)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>(('2022', 'год'), 157)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>('it', 243)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 93)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>('бизнес', 247)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 115)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>('it', 253)</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>(('работа', 'с'), 90)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>('com', 247)</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>(('работа', 'с'), 84)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>('работа', 276)</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 73)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>('май', 287)</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 91)</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>('ru', 663)</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>(('do', 'sr'), 329)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>('работа', 685)</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>(('do', 'sr'), 304)</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>('2021', 363)</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 127)</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>('it', 374)</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 148)</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>('it', 393)</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 149)</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>('2021', 344)</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 132)</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>('2021', 408)</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>(('vk', 'cc'), 139)</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>('it', 393)</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>(('а', 'также'), 149)</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>('000', 565)</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>(('https', 'clck'), 234)</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>('1', 243)</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 80)</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>('it', 523)</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 187)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -579,6 +2559,226 @@
           <t>(('http', 'amp'), 99)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('сентябрь', 321)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 134)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>('новый', 301)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 99)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>('com', 281)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 92)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>('it', 233)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 93)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>('данные', 369)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 146)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>('2021', 226)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 88)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>('команда', 238)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 99)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>('новый', 249)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 85)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>('система', 238)</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 83)</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>('новый', 250)</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>(('по', 'ссылка'), 73)</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>('новый', 275)</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 91)</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>('shikari', 658)</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>(('рабочий', 'день'), 207)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>('do', 618)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 226)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>('проект', 358)</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 120)</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>('2021', 359)</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 132)</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>('команда', 367)</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 147)</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>('онлайн', 315)</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 132)</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>('it', 353)</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>(('https', 'www'), 137)</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>('команда', 367)</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 147)</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>('работа', 557)</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>(('день', 'от'), 233)</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>('it', 230)</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>(('2022', 'год'), 79)</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>('2022', 509)</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>(('от', 'компания'), 180)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -592,6 +2792,226 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>(('amp', 'gs'), 99)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>('программа', 309)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(('ссылка', 'https'), 131)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>('команда', 278)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 99)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>('команда', 279)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>(('vk', 'cc'), 82)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>('разработчик', 222)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 93)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>('python', 367)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 144)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>('команда', 218)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>(('https', 'vk'), 84)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>('it', 235)</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 94)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>('com', 232)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>(('https', 'bit'), 79)</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>('команда', 226)</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>(('vk', 'cc'), 80)</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>('com', 202)</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>(('clck', 'ru'), 71)</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>('команда', 259)</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>(('о', 'тот'), 89)</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>('работа', 584)</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>(('полный', 'рабочий'), 200)</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>('shikari', 608)</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>(('рабочий', 'день'), 219)</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>('ссылка', 286)</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 120)</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>('ноябрь', 338)</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>(('amp', 'gs'), 132)</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>('00', 354)</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>(('о', 'тот'), 139)</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>('октябрь', 312)</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>(('один', 'из'), 122)</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>('00', 336)</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>(('http', 'amp'), 134)</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>('00', 354)</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>(('о', 'тот'), 139)</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>('it', 556)</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>(('от', 'компания'), 220)</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>('2', 227)</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>(('с', 'помощь'), 78)</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>('новый', 498)</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>(('bit', 'ly'), 174)</t>
         </is>
       </c>
     </row>
